--- a/maltmysteriet/bryggeskjema-mystery.xlsx
+++ b/maltmysteriet/bryggeskjema-mystery.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Bryggedato</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -554,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,15 +873,51 @@
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
